--- a/data/CS1_2/case18_1/case18_1_2040.xlsx
+++ b/data/CS1_2/case18_1/case18_1_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488DB907-D2E5-4C2C-AC62-B9FA3DFDC585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3450B0E1-BA81-4918-8828-78C23F13D42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13720,372 +13720,372 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>20.230638018288978</v>
+            <v>48.581880981194345</v>
           </cell>
           <cell r="C2">
-            <v>20.760987895338609</v>
+            <v>49.855463879663667</v>
           </cell>
           <cell r="D2">
-            <v>24.72756301743896</v>
+            <v>59.380802641132135</v>
           </cell>
           <cell r="E2">
-            <v>26.904207304496815</v>
+            <v>64.607799120266648</v>
           </cell>
           <cell r="F2">
-            <v>27.633438385440055</v>
+            <v>66.358975605661968</v>
           </cell>
           <cell r="G2">
-            <v>22.628261420784181</v>
+            <v>54.339537001357741</v>
           </cell>
           <cell r="H2">
-            <v>24.451339123142279</v>
+            <v>58.717478214846032</v>
           </cell>
           <cell r="I2">
-            <v>13.656509334027952</v>
+            <v>32.794759635585038</v>
           </cell>
           <cell r="J2">
-            <v>6.1763662764738063</v>
+            <v>14.831934171757313</v>
           </cell>
           <cell r="K2">
-            <v>4.4306312645187766</v>
+            <v>10.639723797629127</v>
           </cell>
           <cell r="L2">
-            <v>3.8560855643816794</v>
+            <v>9.2600089909540291</v>
           </cell>
           <cell r="M2">
-            <v>5.6791632667397787</v>
+            <v>13.637950204442323</v>
           </cell>
           <cell r="N2">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="O2">
-            <v>4.7400020261310614</v>
+            <v>11.382647155069566</v>
           </cell>
           <cell r="P2">
-            <v>4.8615405396216014</v>
+            <v>11.674509902635453</v>
           </cell>
           <cell r="Q2">
-            <v>4.9609811415684071</v>
+            <v>11.91330669609845</v>
           </cell>
           <cell r="R2">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="S2">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="T2">
-            <v>5.1267154781464148</v>
+            <v>12.311301351870112</v>
           </cell>
           <cell r="U2">
-            <v>5.9553871610364606</v>
+            <v>14.301274630728427</v>
           </cell>
           <cell r="V2">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="W2">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="X2">
-            <v>6.6183245073484978</v>
+            <v>15.893253253815082</v>
           </cell>
           <cell r="Y2">
-            <v>10.551752762133248</v>
+            <v>25.338993084129221</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>26.970501039128017</v>
+            <v>64.766996982575307</v>
           </cell>
           <cell r="C3">
-            <v>20.319029664463919</v>
+            <v>48.794144797605902</v>
           </cell>
           <cell r="D3">
-            <v>18.263923890896606</v>
+            <v>43.859011066037283</v>
           </cell>
           <cell r="E3">
-            <v>19.258329910364658</v>
+            <v>46.246979000667253</v>
           </cell>
           <cell r="F3">
-            <v>18.330217625527808</v>
+            <v>44.018208928345942</v>
           </cell>
           <cell r="G3">
-            <v>27.213578066109097</v>
+            <v>65.35072247770708</v>
           </cell>
           <cell r="H3">
-            <v>28.020151837455408</v>
+            <v>67.287629802462519</v>
           </cell>
           <cell r="I3">
-            <v>13.369236483959401</v>
+            <v>32.10490223224749</v>
           </cell>
           <cell r="J3">
-            <v>9.4137103176309171</v>
+            <v>22.606096447830463</v>
           </cell>
           <cell r="K3">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="L3">
-            <v>7.5906326152728179</v>
+            <v>18.228155234342172</v>
           </cell>
           <cell r="M3">
-            <v>3.3036377757883155</v>
+            <v>7.9333601383818193</v>
           </cell>
           <cell r="N3">
-            <v>5.5686737090211063</v>
+            <v>13.372620433927882</v>
           </cell>
           <cell r="O3">
-            <v>8.1099335365505798</v>
+            <v>19.475205155760047</v>
           </cell>
           <cell r="P3">
-            <v>11.5130119142857</v>
+            <v>27.647362087604865</v>
           </cell>
           <cell r="Q3">
-            <v>12.982523031944048</v>
+            <v>31.176248035446946</v>
           </cell>
           <cell r="R3">
-            <v>11.468816091198232</v>
+            <v>27.54123017939909</v>
           </cell>
           <cell r="S3">
-            <v>4.7400020261310614</v>
+            <v>11.382647155069566</v>
           </cell>
           <cell r="T3">
-            <v>7.2370660305730645</v>
+            <v>17.379099968695957</v>
           </cell>
           <cell r="U3">
-            <v>6.5741286842610291</v>
+            <v>15.787121345609304</v>
           </cell>
           <cell r="V3">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="W3">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="X3">
-            <v>7.6679753056758893</v>
+            <v>18.413886073702283</v>
           </cell>
           <cell r="Y3">
-            <v>23.976234024951985</v>
+            <v>57.576560201633932</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>25.766164859994486</v>
+            <v>61.874902483967894</v>
           </cell>
           <cell r="C4">
-            <v>22.650359332327913</v>
+            <v>54.392602955460625</v>
           </cell>
           <cell r="D4">
-            <v>16.70602112706332</v>
+            <v>40.117861301783641</v>
           </cell>
           <cell r="E4">
-            <v>17.490496986865896</v>
+            <v>42.001702672436181</v>
           </cell>
           <cell r="F4">
-            <v>17.645182367672039</v>
+            <v>42.373164351156404</v>
           </cell>
           <cell r="G4">
-            <v>18.374413448615275</v>
+            <v>44.124340836551717</v>
           </cell>
           <cell r="H4">
-            <v>15.346999567123646</v>
+            <v>36.854305124456005</v>
           </cell>
           <cell r="I4">
-            <v>6.275806878420612</v>
+            <v>15.07073096522031</v>
           </cell>
           <cell r="J4">
-            <v>2.1876932428297202</v>
+            <v>5.2535294561859534</v>
           </cell>
           <cell r="K4">
-            <v>1.0938466214148601</v>
+            <v>2.6267647280929767</v>
           </cell>
           <cell r="L4">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="M4">
-            <v>2.8616795449136241</v>
+            <v>6.8720410563240497</v>
           </cell>
           <cell r="N4">
-            <v>5.7344080455991158</v>
+            <v>13.770615089699545</v>
           </cell>
           <cell r="O4">
-            <v>5.2151071243213538</v>
+            <v>12.523565168281666</v>
           </cell>
           <cell r="P4">
-            <v>5.8448976033177882</v>
+            <v>14.035944860213986</v>
           </cell>
           <cell r="Q4">
-            <v>5.3255966820400271</v>
+            <v>12.78889493879611</v>
           </cell>
           <cell r="R4">
-            <v>5.3255966820400271</v>
+            <v>12.78889493879611</v>
           </cell>
           <cell r="S4">
-            <v>3.3588825546476517</v>
+            <v>8.0660250236390389</v>
           </cell>
           <cell r="T4">
-            <v>6.0658767187551339</v>
+            <v>14.566604401242872</v>
           </cell>
           <cell r="U4">
-            <v>5.6239184878804425</v>
+            <v>13.505285319185102</v>
           </cell>
           <cell r="V4">
-            <v>3.3036377757883155</v>
+            <v>7.9333601383818193</v>
           </cell>
           <cell r="W4">
-            <v>3.8560855643816794</v>
+            <v>9.2600089909540291</v>
           </cell>
           <cell r="X4">
-            <v>8.9386052194406247</v>
+            <v>21.465178434618366</v>
           </cell>
           <cell r="Y4">
-            <v>16.418748276994769</v>
+            <v>39.428003898446093</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>3.3036377757883155</v>
+            <v>7.9333601383818193</v>
           </cell>
           <cell r="C5">
-            <v>3.3036377757883155</v>
+            <v>7.9333601383818193</v>
           </cell>
           <cell r="D5">
-            <v>3.8560855643816794</v>
+            <v>9.2600089909540291</v>
           </cell>
           <cell r="E5">
-            <v>3.8450366086098118</v>
+            <v>9.2334760139025853</v>
           </cell>
           <cell r="F5">
-            <v>3.3036377757883155</v>
+            <v>7.9333601383818193</v>
           </cell>
           <cell r="G5">
-            <v>7.0602827382231883</v>
+            <v>16.95457233587285</v>
           </cell>
           <cell r="H5">
-            <v>8.0215418903756408</v>
+            <v>19.262941339348494</v>
           </cell>
           <cell r="I5">
-            <v>5.0714706992870786</v>
+            <v>12.178636466612891</v>
           </cell>
           <cell r="J5">
-            <v>5.7344080455991158</v>
+            <v>13.770615089699545</v>
           </cell>
           <cell r="K5">
-            <v>1.3148257368522056</v>
+            <v>3.1574242691218606</v>
           </cell>
           <cell r="L5">
-            <v>2.9611201468604298</v>
+            <v>7.1108378497870479</v>
           </cell>
           <cell r="M5">
-            <v>3.3036377757883155</v>
+            <v>7.9333601383818193</v>
           </cell>
           <cell r="N5">
-            <v>3.5246168912256608</v>
+            <v>8.4640196794107023</v>
           </cell>
           <cell r="O5">
-            <v>4.0660157240471575</v>
+            <v>9.7641355549314692</v>
           </cell>
           <cell r="P5">
-            <v>4.4195823087469099</v>
+            <v>10.613190820577683</v>
           </cell>
           <cell r="Q5">
-            <v>4.4306312645187766</v>
+            <v>10.639723797629127</v>
           </cell>
           <cell r="R5">
-            <v>4.4195823087469099</v>
+            <v>10.613190820577683</v>
           </cell>
           <cell r="S5">
-            <v>2.5191619159857384</v>
+            <v>6.0495187677292792</v>
           </cell>
           <cell r="T5">
-            <v>1.0938466214148601</v>
+            <v>2.6267647280929767</v>
           </cell>
           <cell r="U5">
-            <v>2.530210871757606</v>
+            <v>6.0760517447807239</v>
           </cell>
           <cell r="V5">
-            <v>1.0938466214148601</v>
+            <v>2.6267647280929767</v>
           </cell>
           <cell r="W5">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="X5">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="Y5">
-            <v>7.800562774938296</v>
+            <v>18.732281798319612</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>18.783224812174367</v>
+            <v>45.106060987455152</v>
           </cell>
           <cell r="C6">
-            <v>24.031478803811321</v>
+            <v>57.709225086891152</v>
           </cell>
           <cell r="D6">
-            <v>22.418331261118698</v>
+            <v>53.835410437380297</v>
           </cell>
           <cell r="E6">
-            <v>23.567422661392897</v>
+            <v>56.59484005073049</v>
           </cell>
           <cell r="F6">
-            <v>23.258051899780614</v>
+            <v>55.851916693290065</v>
           </cell>
           <cell r="G6">
-            <v>20.551057735673133</v>
+            <v>49.35133731568623</v>
           </cell>
           <cell r="H6">
-            <v>24.164066273073733</v>
+            <v>58.027620811508484</v>
           </cell>
           <cell r="I6">
-            <v>8.6955281924595447</v>
+            <v>20.881452939486593</v>
           </cell>
           <cell r="J6">
-            <v>4.4085333529750432</v>
+            <v>10.58665784352624</v>
           </cell>
           <cell r="K6">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="L6">
-            <v>1.5910496311488875</v>
+            <v>3.8207486954079659</v>
           </cell>
           <cell r="M6">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="N6">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="O6">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="P6">
-            <v>2.2981828005483931</v>
+            <v>5.5188592267003953</v>
           </cell>
           <cell r="Q6">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="R6">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="S6">
-            <v>2.1987421986015878</v>
+            <v>5.2800624332373971</v>
           </cell>
           <cell r="T6">
-            <v>2.7843368545105531</v>
+            <v>6.6863102169639408</v>
           </cell>
           <cell r="U6">
-            <v>2.3092317563202602</v>
+            <v>5.5453922037518391</v>
           </cell>
           <cell r="V6">
-            <v>1.5910496311488875</v>
+            <v>3.8207486954079659</v>
           </cell>
           <cell r="W6">
-            <v>1.9777630831642423</v>
+            <v>4.7494028922085132</v>
           </cell>
           <cell r="X6">
-            <v>2.7732878987386855</v>
+            <v>6.6597772399124961</v>
           </cell>
           <cell r="Y6">
-            <v>3.3146867315601822</v>
+            <v>7.9598931154332622</v>
           </cell>
         </row>
       </sheetData>
@@ -14095,372 +14095,372 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>7.2039191632574626</v>
+            <v>17.299501037541624</v>
           </cell>
           <cell r="C2">
-            <v>11.667697295091843</v>
+            <v>28.018823766325085</v>
           </cell>
           <cell r="D2">
-            <v>6.5409818169454264</v>
+            <v>15.707522414454971</v>
           </cell>
           <cell r="E2">
-            <v>6.7951077996983749</v>
+            <v>16.317780886638189</v>
           </cell>
           <cell r="F2">
-            <v>7.5022409690978797</v>
+            <v>18.015891417930618</v>
           </cell>
           <cell r="G2">
-            <v>7.3475555882917378</v>
+            <v>17.644429739210398</v>
           </cell>
           <cell r="H2">
-            <v>11.048955771867275</v>
+            <v>26.53297705144421</v>
           </cell>
           <cell r="I2">
-            <v>11.258885931532753</v>
+            <v>27.037103615421646</v>
           </cell>
           <cell r="J2">
-            <v>10.78378083334246</v>
+            <v>25.896185602209549</v>
           </cell>
           <cell r="K2">
-            <v>8.8944093963531579</v>
+            <v>21.359046526412591</v>
           </cell>
           <cell r="L2">
-            <v>9.5683956984370599</v>
+            <v>22.977558126550687</v>
           </cell>
           <cell r="M2">
-            <v>11.048955771867275</v>
+            <v>26.53297705144421</v>
           </cell>
           <cell r="N2">
-            <v>8.618185502056475</v>
+            <v>20.695722100126481</v>
           </cell>
           <cell r="O2">
-            <v>6.4304922592267539</v>
+            <v>15.44219264394053</v>
           </cell>
           <cell r="P2">
-            <v>7.2481149863449321</v>
+            <v>17.405632945747399</v>
           </cell>
           <cell r="Q2">
-            <v>8.8833604405812885</v>
+            <v>21.332513549361142</v>
           </cell>
           <cell r="R2">
-            <v>8.4303532539347312</v>
+            <v>20.244661490251932</v>
           </cell>
           <cell r="S2">
-            <v>9.3032207599122447</v>
+            <v>22.340766677316022</v>
           </cell>
           <cell r="T2">
-            <v>5.14881338969015</v>
+            <v>12.364367305973001</v>
           </cell>
           <cell r="U2">
-            <v>4.7731488934466633</v>
+            <v>11.4622460862239</v>
           </cell>
           <cell r="V2">
-            <v>3.1047565718947041</v>
+            <v>7.4557665514558229</v>
           </cell>
           <cell r="W2">
-            <v>3.1047565718947041</v>
+            <v>7.4557665514558229</v>
           </cell>
           <cell r="X2">
-            <v>3.6793022720318027</v>
+            <v>8.8354813581309219</v>
           </cell>
           <cell r="Y2">
-            <v>9.9109133273649466</v>
+            <v>23.800080415145455</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>12.452173154894417</v>
+            <v>29.902665136977621</v>
           </cell>
           <cell r="C3">
-            <v>13.523921864765544</v>
+            <v>32.476363910967713</v>
           </cell>
           <cell r="D3">
-            <v>9.2479759810529085</v>
+            <v>22.208101792058802</v>
           </cell>
           <cell r="E3">
-            <v>9.4358082291746523</v>
+            <v>22.659162401933351</v>
           </cell>
           <cell r="F3">
-            <v>9.7672769023306714</v>
+            <v>23.455151713476681</v>
           </cell>
           <cell r="G3">
-            <v>9.8667175042774762</v>
+            <v>23.693948506939677</v>
           </cell>
           <cell r="H3">
-            <v>19.810777698958024</v>
+            <v>47.573627853239465</v>
           </cell>
           <cell r="I3">
-            <v>17.23637100411295</v>
+            <v>41.391444200252963</v>
           </cell>
           <cell r="J3">
-            <v>10.916368302604868</v>
+            <v>26.214581326826881</v>
           </cell>
           <cell r="K3">
-            <v>10.640144408308187</v>
+            <v>25.551256900540775</v>
           </cell>
           <cell r="L3">
-            <v>8.5187449001096684</v>
+            <v>20.456925306663486</v>
           </cell>
           <cell r="M3">
-            <v>8.8060177501782171</v>
+            <v>21.146782710001034</v>
           </cell>
           <cell r="N3">
-            <v>10.032451840855485</v>
+            <v>24.091943162711342</v>
           </cell>
           <cell r="O3">
-            <v>7.8779054653413665</v>
+            <v>18.91801263767972</v>
           </cell>
           <cell r="P3">
-            <v>8.1762272711817836</v>
+            <v>19.634403018068717</v>
           </cell>
           <cell r="Q3">
-            <v>8.6623813251439437</v>
+            <v>20.80185400833226</v>
           </cell>
           <cell r="R3">
-            <v>8.3972063866191284</v>
+            <v>20.165062559097599</v>
           </cell>
           <cell r="S3">
-            <v>6.2979047899643472</v>
+            <v>15.123796919323199</v>
           </cell>
           <cell r="T3">
-            <v>5.3587435493556281</v>
+            <v>12.86849386995044</v>
           </cell>
           <cell r="U3">
-            <v>4.6737082914998576</v>
+            <v>11.223449292760902</v>
           </cell>
           <cell r="V3">
-            <v>2.6296514737044112</v>
+            <v>6.3148485382437212</v>
           </cell>
           <cell r="W3">
-            <v>3.093707616122837</v>
+            <v>7.4292335744043783</v>
           </cell>
           <cell r="X3">
-            <v>2.3092317563202602</v>
+            <v>5.5453922037518391</v>
           </cell>
           <cell r="Y3">
-            <v>13.623362466712351</v>
+            <v>32.715160704430708</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.4967859938579577</v>
+            <v>15.601390506249194</v>
           </cell>
           <cell r="C4">
-            <v>9.9219622831368142</v>
+            <v>23.826613392196901</v>
           </cell>
           <cell r="D4">
-            <v>8.441402209706597</v>
+            <v>20.271194467303374</v>
           </cell>
           <cell r="E4">
-            <v>8.529793855881536</v>
+            <v>20.483458283714928</v>
           </cell>
           <cell r="F4">
-            <v>8.441402209706597</v>
+            <v>20.271194467303374</v>
           </cell>
           <cell r="G4">
-            <v>8.529793855881536</v>
+            <v>20.483458283714928</v>
           </cell>
           <cell r="H4">
-            <v>9.0932906002467675</v>
+            <v>21.836640113338586</v>
           </cell>
           <cell r="I4">
-            <v>7.9441991999725712</v>
+            <v>19.077210499988386</v>
           </cell>
           <cell r="J4">
-            <v>7.4248982786948083</v>
+            <v>17.830160578570506</v>
           </cell>
           <cell r="K4">
-            <v>7.2481149863449321</v>
+            <v>17.405632945747399</v>
           </cell>
           <cell r="L4">
-            <v>6.3531495688236834</v>
+            <v>15.25646180458042</v>
           </cell>
           <cell r="M4">
-            <v>5.4581841513024338</v>
+            <v>13.107290663413441</v>
           </cell>
           <cell r="N4">
-            <v>5.0935686108308138</v>
+            <v>12.231702420715781</v>
           </cell>
           <cell r="O4">
-            <v>5.0935686108308138</v>
+            <v>12.231702420715781</v>
           </cell>
           <cell r="P4">
-            <v>6.7509119766109054</v>
+            <v>16.211648978432411</v>
           </cell>
           <cell r="Q4">
-            <v>5.0935686108308138</v>
+            <v>12.231702420715781</v>
           </cell>
           <cell r="R4">
-            <v>5.0935686108308138</v>
+            <v>12.231702420715781</v>
           </cell>
           <cell r="S4">
-            <v>5.14881338969015</v>
+            <v>12.364367305973001</v>
           </cell>
           <cell r="T4">
-            <v>6.1653173207019396</v>
+            <v>14.805401194705869</v>
           </cell>
           <cell r="U4">
-            <v>6.1432194091582044</v>
+            <v>14.75233524060298</v>
           </cell>
           <cell r="V4">
-            <v>5.6239184878804425</v>
+            <v>13.505285319185102</v>
           </cell>
           <cell r="W4">
-            <v>4.78419784921853</v>
+            <v>11.488779063275343</v>
           </cell>
           <cell r="X4">
-            <v>5.1046175666026814</v>
+            <v>12.258235397767224</v>
           </cell>
           <cell r="Y4">
-            <v>7.679024261447756</v>
+            <v>18.440419050753725</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>12.253291951000808</v>
+            <v>29.425071550051626</v>
           </cell>
           <cell r="C5">
-            <v>20.981967010775953</v>
+            <v>50.386123420692549</v>
           </cell>
           <cell r="D5">
-            <v>11.733991029723045</v>
+            <v>28.178021628633747</v>
           </cell>
           <cell r="E5">
-            <v>11.733991029723045</v>
+            <v>28.178021628633747</v>
           </cell>
           <cell r="F5">
-            <v>11.733991029723045</v>
+            <v>28.178021628633747</v>
           </cell>
           <cell r="G5">
-            <v>11.733991029723045</v>
+            <v>28.178021628633747</v>
           </cell>
           <cell r="H5">
-            <v>11.5130119142857</v>
+            <v>27.647362087604865</v>
           </cell>
           <cell r="I5">
-            <v>7.4248982786948083</v>
+            <v>17.830160578570506</v>
           </cell>
           <cell r="J5">
-            <v>7.6900732172196236</v>
+            <v>18.466952027805171</v>
           </cell>
           <cell r="K5">
-            <v>8.2425210058129874</v>
+            <v>19.79360088037738</v>
           </cell>
           <cell r="L5">
-            <v>11.579305648916904</v>
+            <v>27.806559949913531</v>
           </cell>
           <cell r="M5">
-            <v>10.386018425555239</v>
+            <v>24.940998428357556</v>
           </cell>
           <cell r="N5">
-            <v>9.3474165829997151</v>
+            <v>22.446898585521804</v>
           </cell>
           <cell r="O5">
-            <v>9.5352488311214589</v>
+            <v>22.897959195396353</v>
           </cell>
           <cell r="P5">
-            <v>9.3474165829997151</v>
+            <v>22.446898585521804</v>
           </cell>
           <cell r="Q5">
-            <v>12.032312835563463</v>
+            <v>28.894412009022744</v>
           </cell>
           <cell r="R5">
-            <v>10.905319346833</v>
+            <v>26.188048349775432</v>
           </cell>
           <cell r="S5">
-            <v>8.9054583521250237</v>
+            <v>21.385579503464033</v>
           </cell>
           <cell r="T5">
-            <v>8.9054583521250237</v>
+            <v>21.385579503464033</v>
           </cell>
           <cell r="U5">
-            <v>9.6678363003838648</v>
+            <v>23.216354920013682</v>
           </cell>
           <cell r="V5">
-            <v>6.8172057112421083</v>
+            <v>16.370846840741077</v>
           </cell>
           <cell r="W5">
-            <v>7.2923108094324007</v>
+            <v>17.511764853953178</v>
           </cell>
           <cell r="X5">
-            <v>6.3200027015080806</v>
+            <v>15.176862873426087</v>
           </cell>
           <cell r="Y5">
-            <v>11.336228621935824</v>
+            <v>27.222834454781758</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>8.375108475075395</v>
+            <v>20.111996604994712</v>
           </cell>
           <cell r="C6">
-            <v>10.441263204414573</v>
+            <v>25.073663313614777</v>
           </cell>
           <cell r="D6">
-            <v>6.9939890035919854</v>
+            <v>16.795374473564184</v>
           </cell>
           <cell r="E6">
-            <v>7.5132899248697465</v>
+            <v>18.04242439498206</v>
           </cell>
           <cell r="F6">
-            <v>7.5132899248697465</v>
+            <v>18.04242439498206</v>
           </cell>
           <cell r="G6">
-            <v>6.9055973574170464</v>
+            <v>16.583110657152631</v>
           </cell>
           <cell r="H6">
-            <v>8.5850386347408723</v>
+            <v>20.616123168972148</v>
           </cell>
           <cell r="I6">
-            <v>10.441263204414573</v>
+            <v>25.073663313614777</v>
           </cell>
           <cell r="J6">
-            <v>10.187137221661628</v>
+            <v>24.463404841431561</v>
           </cell>
           <cell r="K6">
-            <v>9.5241998753495896</v>
+            <v>22.871426218344904</v>
           </cell>
           <cell r="L6">
-            <v>7.8337096422538979</v>
+            <v>18.811880729473945</v>
           </cell>
           <cell r="M6">
-            <v>7.1044785613106578</v>
+            <v>17.060704244078625</v>
           </cell>
           <cell r="N6">
-            <v>6.463639126542355</v>
+            <v>15.521791575094861</v>
           </cell>
           <cell r="O6">
-            <v>7.1155275170825254</v>
+            <v>17.087237221130071</v>
           </cell>
           <cell r="P6">
-            <v>7.5022409690978797</v>
+            <v>18.015891417930618</v>
           </cell>
           <cell r="Q6">
-            <v>8.9938499982999627</v>
+            <v>21.597843319875587</v>
           </cell>
           <cell r="R6">
-            <v>9.4026613618590513</v>
+            <v>22.579563470779021</v>
           </cell>
           <cell r="S6">
-            <v>10.131892442802291</v>
+            <v>24.330739956174341</v>
           </cell>
           <cell r="T6">
-            <v>9.7120321234713334</v>
+            <v>23.322486828219457</v>
           </cell>
           <cell r="U6">
-            <v>8.3972063866191284</v>
+            <v>20.165062559097599</v>
           </cell>
           <cell r="V6">
-            <v>6.9497931805045159</v>
+            <v>16.689242565358409</v>
           </cell>
           <cell r="W6">
-            <v>7.3144087209761359</v>
+            <v>17.564830808056065</v>
           </cell>
           <cell r="X6">
-            <v>7.2149681190293311</v>
+            <v>17.32603401459307</v>
           </cell>
           <cell r="Y6">
-            <v>8.8281156617219523</v>
+            <v>21.199848664103925</v>
           </cell>
         </row>
       </sheetData>
@@ -14736,8 +14736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26145,99 +26145,99 @@
       </c>
       <c r="B2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -26246,99 +26246,99 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -26347,99 +26347,99 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26448,99 +26448,99 @@
       </c>
       <c r="B5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -26549,99 +26549,99 @@
       </c>
       <c r="B6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -26650,99 +26650,99 @@
       </c>
       <c r="B7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -26751,99 +26751,99 @@
       </c>
       <c r="B8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -26852,99 +26852,99 @@
       </c>
       <c r="B9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -26953,99 +26953,99 @@
       </c>
       <c r="B10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -27054,99 +27054,99 @@
       </c>
       <c r="B11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -27155,99 +27155,99 @@
       </c>
       <c r="B12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -27256,99 +27256,99 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -27357,99 +27357,99 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -27458,99 +27458,99 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -27559,99 +27559,99 @@
       </c>
       <c r="B16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.010833301074832</v>
+        <v>45.652640314714901</v>
       </c>
       <c r="C16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="D16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>17.194384972179854</v>
+        <v>41.290618887457477</v>
       </c>
       <c r="E16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>18.213098694346016</v>
+        <v>43.736959371600634</v>
       </c>
       <c r="F16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.034105610841767</v>
+        <v>43.307125143367244</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>19.165518681880975</v>
+        <v>46.024101993435124</v>
       </c>
       <c r="H16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>20.000819738234142</v>
+        <v>48.029995058524307</v>
       </c>
       <c r="I16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.4137103176309189</v>
+        <v>22.60609644783046</v>
       </c>
       <c r="J16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.5841422471017195</v>
+        <v>13.409766601799902</v>
       </c>
       <c r="K16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.6893158348724944</v>
+        <v>6.4581266143215199</v>
       </c>
       <c r="L16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.6395260312530802</v>
+        <v>8.7399626407457216</v>
       </c>
       <c r="M16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.4693721123663246</v>
+        <v>8.3313547941534818</v>
       </c>
       <c r="N16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.2869948394845023</v>
+        <v>10.294795095960353</v>
       </c>
       <c r="O16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.8659601219303479</v>
+        <v>11.68512309345603</v>
       </c>
       <c r="P16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.7874430333040783</v>
+        <v>13.897973379546476</v>
       </c>
       <c r="Q16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.9796948637345695</v>
+        <v>14.359647180241609</v>
       </c>
       <c r="R16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.5642541267123606</v>
+        <v>13.362007243107305</v>
       </c>
       <c r="S16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.445064409668217</v>
+        <v>8.2729822446403052</v>
       </c>
       <c r="T16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.4615683406800049</v>
+        <v>10.714016133373171</v>
       </c>
       <c r="U16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.598575392251159</v>
+        <v>11.043025048811078</v>
       </c>
       <c r="V16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="W16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.9279732795448283</v>
+        <v>7.0312389186327149</v>
       </c>
       <c r="X16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.081345256835748</v>
+        <v>14.603750569114894</v>
       </c>
       <c r="Y16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>12.412396914115696</v>
+        <v>29.807146419592424</v>
       </c>
     </row>
   </sheetData>
@@ -45084,99 +45084,99 @@
       </c>
       <c r="B2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -45185,99 +45185,99 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -45286,99 +45286,99 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -45387,99 +45387,99 @@
       </c>
       <c r="B5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -45488,99 +45488,99 @@
       </c>
       <c r="B6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -45589,99 +45589,99 @@
       </c>
       <c r="B7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -45690,99 +45690,99 @@
       </c>
       <c r="B8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -45791,99 +45791,99 @@
       </c>
       <c r="B9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -45892,99 +45892,99 @@
       </c>
       <c r="B10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -45993,99 +45993,99 @@
       </c>
       <c r="B11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -46094,99 +46094,99 @@
       </c>
       <c r="B12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -46195,99 +46195,99 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -46296,99 +46296,99 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -46397,99 +46397,99 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -46498,99 +46498,99 @@
       </c>
       <c r="B16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.3562557476172081</v>
+        <v>22.468124967162957</v>
       </c>
       <c r="C16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.307362331636947</v>
+        <v>31.956317560759409</v>
       </c>
       <c r="D16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.5916680082039925</v>
+        <v>20.632042955203012</v>
       </c>
       <c r="E16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.8015981678694697</v>
+        <v>21.136169519180456</v>
       </c>
       <c r="F16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.9916402071455881</v>
+        <v>21.592536724465297</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.8767310671181683</v>
+        <v>21.316593763130275</v>
       </c>
       <c r="H16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.010214924019726</v>
+        <v>28.841346054919853</v>
       </c>
       <c r="I16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.861123523745531</v>
+        <v>26.081916441569653</v>
       </c>
       <c r="J16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.4004515707046785</v>
+        <v>22.574256875368736</v>
       </c>
       <c r="K16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.9098779344337693</v>
+        <v>21.396192694284611</v>
       </c>
       <c r="L16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.770661091708245</v>
+        <v>21.061877183436412</v>
       </c>
       <c r="M16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.5607309320427643</v>
+        <v>20.557750619458972</v>
       </c>
       <c r="N16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.9110523326569693</v>
+        <v>18.997611568834053</v>
       </c>
       <c r="O16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.2105485367205846</v>
+        <v>17.315420823772492</v>
       </c>
       <c r="P16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.8049823572470443</v>
+        <v>18.74289498914019</v>
       </c>
       <c r="Q16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.7330946420838949</v>
+        <v>20.971665061461504</v>
       </c>
       <c r="R16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.4458217920153444</v>
+        <v>20.281807658123952</v>
       </c>
       <c r="S16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.9574579468988116</v>
+        <v>19.10905007245012</v>
       </c>
       <c r="T16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.0580729470688137</v>
+        <v>16.949265740462558</v>
       </c>
       <c r="U16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.731023856221543</v>
+        <v>16.163889619739813</v>
       </c>
       <c r="V16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.0250650850452363</v>
+        <v>12.067197962996826</v>
       </c>
       <c r="W16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.1178763135289218</v>
+        <v>12.290074970228959</v>
       </c>
       <c r="X16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.9256244830984315</v>
+        <v>11.82840116953383</v>
       </c>
       <c r="Y16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.275528867836567</v>
+        <v>24.675668657843111</v>
       </c>
     </row>
   </sheetData>
@@ -51309,7 +51309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764405B9-6B3C-4F8A-A775-FFC7ECA3AF01}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
